--- a/src/main/resources/examples/散煤.xlsx
+++ b/src/main/resources/examples/散煤.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_B601407E5ECC737535860A1D05990D7E1670B85F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58156382-5032-43C5-B250-02228AD4858F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,130 +17,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>控制措施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料硫分（%）</t>
+  </si>
+  <si>
+    <t>燃料灰分（%）</t>
+  </si>
+  <si>
+    <t>scc编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>区县ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>燃料类型</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>燃料计量单位</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>燃料消耗量</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM2.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SO2 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>scc</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编码</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -156,17 +145,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,17 +173,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -209,6 +184,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -257,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +268,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,6 +320,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,93 +512,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="6" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>